--- a/documentation/Bill of Materials.xlsx
+++ b/documentation/Bill of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevyn\Documents\GitHub\owletBoard_attiny84\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F569A7CA-D648-4BCB-B2B7-49DC7E0E77D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E87032-8C9D-44B4-B180-844B5C120BB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{73E32755-A76D-484D-8DA5-E901F4FF593E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>Component</t>
   </si>
@@ -153,18 +153,9 @@
     <t>Digikey or Arrow</t>
   </si>
   <si>
-    <t>Ebay China</t>
-  </si>
-  <si>
     <t>Can sub with LM1117-3.3 if need US supplier</t>
   </si>
   <si>
-    <t>Any 1uF through hole cap</t>
-  </si>
-  <si>
-    <t>2.48 mm spacing</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
   </si>
   <si>
     <t>0ZCH0020FF2E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current cap doesn't fit well. </t>
   </si>
   <si>
     <r>
@@ -230,7 +218,29 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Depends on the board </t>
+    <t>Use UJ2-BH for Oregon board
+Use UP2-AH-1-TH for Owl board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB A </t>
+  </si>
+  <si>
+    <t>Monoprice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use only for Oregon board </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Any 1uF ceramic with 5.08mm spacing</t>
+  </si>
+  <si>
+    <t>5.08mm spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check for fit. Unsure. </t>
   </si>
 </sst>
 </file>
@@ -312,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -334,6 +344,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -650,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6F46E2-DE9F-4C24-A0FC-34A88BD2DBB6}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,12 +702,12 @@
         <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -711,14 +727,12 @@
         <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" s="4">
         <v>0.1</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -738,14 +752,12 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G3" s="4">
         <v>0.1</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -765,24 +777,22 @@
         <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G4" s="4">
         <v>0.1</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -791,20 +801,16 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G5" s="4">
         <v>0.1</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -901,10 +907,10 @@
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2">
         <v>0.54</v>
@@ -912,28 +918,28 @@
       <c r="H9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>58</v>
+      <c r="I9" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2">
         <v>0.99</v>
@@ -942,7 +948,7 @@
         <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -970,7 +976,9 @@
       <c r="H11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -986,10 +994,10 @@
         <v>16</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G12" s="4">
         <v>0.11</v>
@@ -999,14 +1007,40 @@
       </c>
       <c r="I12" s="4"/>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{9996969E-C512-4413-BB15-FA4EFC85AAC5}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{71BAF992-B1B5-4255-BB6A-BAC1CD5D36A0}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{C0D65C45-1E41-426F-8004-A89E4A628693}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{01886F9C-FF4C-4AAA-8097-8B05AC77F82B}"/>
+    <hyperlink ref="H13" r:id="rId1" xr:uid="{3FDA174D-53ED-4C2B-BDD8-AE08CDBF6929}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="4294967295" r:id="rId5"/>
+  <pageSetup orientation="portrait" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>